--- a/Wine_Quality/outputs/train_90_test_10/depth_2/wq_train_90_test_10_depth_2_report.xlsx
+++ b/Wine_Quality/outputs/train_90_test_10/depth_2/wq_train_90_test_10_depth_2_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.4601769911504425</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.40625</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.4315352697095436</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8141263940520446</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8795180722891566</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8455598455598455</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>498</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4553571428571428</v>
+        <v>0.819366852886406</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3984375</v>
+        <v>0.8835341365461847</v>
       </c>
       <c r="D4" t="n">
-        <v>0.425</v>
+        <v>0.8502415458937198</v>
       </c>
       <c r="E4" t="n">
-        <v>128</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7523076923076923</v>
+        <v>0.7569230769230769</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7523076923076923</v>
+        <v>0.7569230769230769</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7523076923076923</v>
+        <v>0.7569230769230769</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7523076923076923</v>
+        <v>0.7569230769230769</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4231611789697292</v>
+        <v>0.4265146146789495</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4259851907630521</v>
+        <v>0.4299280455153949</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4235199485199485</v>
+        <v>0.4272589385344212</v>
       </c>
       <c r="E6" t="n">
         <v>650</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7134163977286654</v>
+        <v>0.7183805347764413</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7523076923076923</v>
+        <v>0.7569230769230769</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7315212355212355</v>
+        <v>0.7363950836582984</v>
       </c>
       <c r="E7" t="n">
         <v>650</v>

--- a/Wine_Quality/outputs/train_90_test_10/depth_2/wq_train_90_test_10_depth_2_report.xlsx
+++ b/Wine_Quality/outputs/train_90_test_10/depth_2/wq_train_90_test_10_depth_2_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4601769911504425</v>
+        <v>0.46</v>
       </c>
       <c r="C2" t="n">
-        <v>0.40625</v>
+        <v>0.41</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4315352697095436</v>
+        <v>0.43</v>
       </c>
       <c r="E2" t="n">
         <v>128</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.819366852886406</v>
+        <v>0.82</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8835341365461847</v>
+        <v>0.88</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8502415458937198</v>
+        <v>0.85</v>
       </c>
       <c r="E4" t="n">
         <v>498</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7569230769230769</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7569230769230769</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7569230769230769</v>
+        <v>0.76</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7569230769230769</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4265146146789495</v>
+        <v>0.43</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4299280455153949</v>
+        <v>0.43</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4272589385344212</v>
+        <v>0.43</v>
       </c>
       <c r="E6" t="n">
         <v>650</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7183805347764413</v>
+        <v>0.72</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7569230769230769</v>
+        <v>0.76</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7363950836582984</v>
+        <v>0.74</v>
       </c>
       <c r="E7" t="n">
         <v>650</v>
